--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>start_time</t>
   </si>
@@ -28,7 +28,7 @@
     <t>label</t>
   </si>
   <si>
-    <t>qwen2-72b-instruct_predict</t>
+    <t>soikit_test_predict</t>
   </si>
   <si>
     <t>具你，为什么要我买？这是第一套。</t>
@@ -52,37 +52,47 @@
     <t>没有，50。我现在这个阳猫世，</t>
   </si>
   <si>
-    <t>我看谁今天的坐姿有问题啊啊，</t>
+    <t>我看谁今天坐姿有问题啊啊，</t>
+  </si>
+  <si>
+    <t>{
+"result": [
+    {"type": "发起", "content": "具你，为什么要我买？这是第一套。"}
+],
+"compliance": "低"
+}</t>
   </si>
   <si>
     <t>{
 "result":
-[{"type":"发起","content": "具你，为什么要我买？这是第一套。"},
-{"type":"其它","content": ""}],
-"compliance": "低"
+[
+{"type":"其它","content": "好，把语文书翻到第50页，"}
+],
+"compliance": "无"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "result": [
+    {"type": "其它", "content": "然后铅笔收起来把"}
+  ],
+  "compliance": "无"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "result": [
+    {"type": "其它", "content": "先把语文书翻到翻到第50页，翻到这里，"}
+  ],
+  "compliance": "无"
 }</t>
   </si>
   <si>
     <t>{
 "result":
-[{"type":"其它","content": "好，"},
-{"type":"发起","content": "把语文书翻到第50页，"}],
-"compliance": "无"
-}</t>
-  </si>
-  <si>
-    <t>```json
-{
-"result":
-[{"type":"其它","content": "然后铅笔收起来把，"}],
-"compliance": "无"
-}
-```</t>
-  </si>
-  <si>
-    <t>{
-"result":
-[{"type":"其它","content": "先把语文书翻到翻到第50页，翻到这里，"}],
+[
+  {"type":"发起","content":"我看谁今天坐姿有问题啊啊，"}
+],
 "compliance": "无"
 }</t>
   </si>
@@ -599,6 +609,9 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">

--- a/output.xlsx
+++ b/output.xlsx
@@ -56,25 +56,16 @@
   </si>
   <si>
     <t>{
-"result": [
-    {"type": "发起", "content": "具你，为什么要我买？这是第一套。"}
-],
-"compliance": "低"
-}</t>
-  </si>
-  <si>
-    <t>{
-"result":
-[
-{"type":"其它","content": "好，把语文书翻到第50页，"}
-],
-"compliance": "无"
+  "result": [
+    {"type": "发起", "content": "具你，为什么要我买？"}
+  ],
+  "compliance": "低"
 }</t>
   </si>
   <si>
     <t>{
   "result": [
-    {"type": "其它", "content": "然后铅笔收起来把"}
+    {"type": "其它", "content": "好，把语文书翻到第50页，"}
   ],
   "compliance": "无"
 }</t>
@@ -82,18 +73,26 @@
   <si>
     <t>{
   "result": [
-    {"type": "其它", "content": "先把语文书翻到翻到第50页，翻到这里，"}
+    {"type": "其它", "content": "然后铅笔收起来把，"}
   ],
   "compliance": "无"
 }</t>
   </si>
   <si>
     <t>{
-"result":
-[
-  {"type":"发起","content":"我看谁今天坐姿有问题啊啊，"}
-],
-"compliance": "无"
+  "result": [
+    {"type": "其它", "content": "先把语文书翻到翻到第50页，"},
+    {"type": "其它", "content": "翻到这里，"}
+  ],
+  "compliance": "无"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "result": [
+    {"type": "发起", "content": "我看谁今天坐姿有问题啊啊，"}
+  ],
+  "compliance": "无"
 }</t>
   </si>
 </sst>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>start_time</t>
   </si>
@@ -31,66 +31,141 @@
     <t>soikit_test_predict</t>
   </si>
   <si>
-    <t>具你，为什么要我买？这是第一套。</t>
-  </si>
-  <si>
-    <t>喂，你，吃你吃你狗，你，</t>
-  </si>
-  <si>
-    <t>好，把语文书翻到第50页，</t>
-  </si>
-  <si>
-    <t>然后铅笔收起来把，</t>
-  </si>
-  <si>
-    <t>课堂练习放到左上角，</t>
-  </si>
-  <si>
-    <t>先把语文书翻到翻到第50页，翻到这里，</t>
-  </si>
-  <si>
-    <t>没有，50。我现在这个阳猫世，</t>
-  </si>
-  <si>
-    <t>我看谁今天坐姿有问题啊啊，</t>
+    <t>瞧那么一句话，就能把故事的意思讲出来了，小朋友们真能干，好，那我们来看看哦，他为什么什么树都没种成呢？</t>
+  </si>
+  <si>
+    <t>我们来读课文的第一段，来，谁来读？</t>
+  </si>
+  <si>
+    <t>等一下啊，张老师困扰了。嗯，好，你来读</t>
+  </si>
+  <si>
+    <t>猴子，种了一棵梨树苗天，天浇水施肥等着将来吃梨子，嗯，</t>
+  </si>
+  <si>
+    <t>你不要坐下，是不天天说明什么呀？</t>
+  </si>
+  <si>
+    <t>就是每天</t>
+  </si>
+  <si>
+    <t>哎每天对呀，就说明这个猴子怎么样</t>
+  </si>
+  <si>
+    <t>很细心，</t>
+  </si>
+  <si>
+    <t>很细心，还有呢，他每天都去浇，天天都去浇水，施肥说明他怎么样</t>
+  </si>
+  <si>
+    <t>勤劳淡实，</t>
+  </si>
+  <si>
+    <t>英语非常勤劳，猴子是不是很好，你们看，</t>
+  </si>
+  <si>
+    <t>这个猴子种树啊，它有一个动作的过程，你找到了动作的吗？它有哪些动作？好，那就好了，</t>
+  </si>
+  <si>
+    <t>浇水</t>
+  </si>
+  <si>
+    <t>天气就直接浇水了吗？</t>
+  </si>
+  <si>
+    <t>所以先说重好的，然后呢，</t>
+  </si>
+  <si>
+    <t>胶水</t>
+  </si>
+  <si>
+    <t>嗯浇，嗯，施肥，</t>
+  </si>
+  <si>
+    <t>{
+"result":
+[{"type":"评价","content": "瞧那么一句话，就能把故事的意思讲出来了，小朋友们真能干,"},
+{"type":"发起","content": "好，那我们来看看哦，他为什么什么树都没种成呢？"}],
+"compliance": "无"
+}</t>
+  </si>
+  <si>
+    <t>{
+"result":
+[{"type":"发起","content": "我们来读课文的第一段，来，谁来读？"}],
+"compliance": "无"
+}</t>
+  </si>
+  <si>
+    <t>{
+"result":
+[{"type":"其它","content": "等一下啊，张老师困扰了。"},
+{"type":"发起","content": "嗯，好，你来读"}],
+"compliance": "高"
+}</t>
+  </si>
+  <si>
+    <t>{
+"result":
+[{"type":"其它","content": "你不要坐下，"},
+{"type":"发起","content": "是不天天说明什么呀？"}],
+"compliance": "中"
+}</t>
+  </si>
+  <si>
+    <t>{
+"result":
+[{"type":"其它","content": "哎每天对呀，就说明这个猴子怎么样"}],
+"compliance": "无"
+} 
+   _x000D_
+ _x000D_</t>
+  </si>
+  <si>
+    <t>{
+"result":
+[{"type":"评价","content": "很细心,"},
+{"type":"讲解","content": "还有呢，他每天都去浇，天天都去浇水，施肥说明他怎么样"}],
+"compliance": "中"
+}</t>
+  </si>
+  <si>
+    <t>{
+"result":
+[{"type":"讲解","content": "英语非常勤劳，"},
+{"type":"讲解","content":"猴子是不是很好，"},
+{"type":"发起","content": "你们看，"}]
+,
+"compliance": "无"
+}</t>
+  </si>
+  <si>
+    <t>{
+"result":
+[{"type":"发起","content": "这个猴子种树啊，它有一个动作的过程，你找到了动作的吗？它有哪些动作？"},
+{"type":"其它","content": "好，那就好了，"}],
+"compliance": "高"
+}</t>
+  </si>
+  <si>
+    <t>{
+"result":
+[{"type":"其它","content": "天气就直接浇水了吗？"}],
+"compliance": "无"
+}</t>
+  </si>
+  <si>
+    <t>{
+"result":
+[{"type":"其它","content": "所以先说重好的，然后呢,"}]
+,
+"compliance": "低"
+}</t>
   </si>
   <si>
     <t>{
   "result": [
-    {"type": "发起", "content": "具你，为什么要我买？"}
-  ],
-  "compliance": "低"
-}</t>
-  </si>
-  <si>
-    <t>{
-  "result": [
-    {"type": "其它", "content": "好，把语文书翻到第50页，"}
-  ],
-  "compliance": "无"
-}</t>
-  </si>
-  <si>
-    <t>{
-  "result": [
-    {"type": "其它", "content": "然后铅笔收起来把，"}
-  ],
-  "compliance": "无"
-}</t>
-  </si>
-  <si>
-    <t>{
-  "result": [
-    {"type": "其它", "content": "先把语文书翻到翻到第50页，"},
-    {"type": "其它", "content": "翻到这里，"}
-  ],
-  "compliance": "无"
-}</t>
-  </si>
-  <si>
-    <t>{
-  "result": [
-    {"type": "发起", "content": "我看谁今天坐姿有问题啊啊，"}
+    {"type": "讲解", "content": "嗯浇，嗯，施肥，"}
   ],
   "compliance": "无"
 }</t>
@@ -451,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,10 +551,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>27300</v>
+        <v>234250</v>
       </c>
       <c r="B2">
-        <v>32940</v>
+        <v>244470</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -488,18 +563,15 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>35310</v>
+        <v>234250</v>
       </c>
       <c r="B3">
-        <v>39510</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>244470</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -507,27 +579,27 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>40560</v>
+        <v>250810</v>
       </c>
       <c r="B4">
-        <v>42710</v>
+        <v>253750</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>40560</v>
+        <v>250810</v>
       </c>
       <c r="B5">
-        <v>42710</v>
+        <v>253750</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -535,30 +607,30 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>45590</v>
+        <v>258080</v>
       </c>
       <c r="B6">
-        <v>47190</v>
+        <v>260900</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>47910</v>
+        <v>261380</v>
       </c>
       <c r="B7">
-        <v>49590</v>
+        <v>270450</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -566,30 +638,30 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>50070</v>
+        <v>270470</v>
       </c>
       <c r="B8">
-        <v>52760</v>
+        <v>273170</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>52780</v>
+        <v>273660</v>
       </c>
       <c r="B9">
-        <v>52790</v>
+        <v>275280</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -597,29 +669,209 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>53000</v>
+        <v>275480</v>
       </c>
       <c r="B10">
-        <v>69880</v>
+        <v>278210</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>53000</v>
+        <v>278850</v>
       </c>
       <c r="B11">
-        <v>69880</v>
+        <v>279650</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>280310</v>
+      </c>
+      <c r="B12">
+        <v>286520</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>286960</v>
+      </c>
+      <c r="B13">
+        <v>288220</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>288810</v>
+      </c>
+      <c r="B14">
+        <v>291850</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>288810</v>
+      </c>
+      <c r="B15">
+        <v>291850</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>292830</v>
+      </c>
+      <c r="B16">
+        <v>300270</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>303240</v>
+      </c>
+      <c r="B17">
+        <v>303880</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>304160</v>
+      </c>
+      <c r="B18">
+        <v>305640</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>304160</v>
+      </c>
+      <c r="B19">
+        <v>305640</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>307170</v>
+      </c>
+      <c r="B20">
+        <v>309070</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>309490</v>
+      </c>
+      <c r="B21">
+        <v>310190</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>310540</v>
+      </c>
+      <c r="B22">
+        <v>313990</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>310540</v>
+      </c>
+      <c r="B23">
+        <v>313990</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
